--- a/OutpatientAutomation/Test-data/data_HP.xlsx
+++ b/OutpatientAutomation/Test-data/data_HP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\git\MOHAutomationRep3\GAHC_InPatient_Automation\Test-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\git\OPAutomation2\OutpatientAutomation\Test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287ABCC9-668E-4855-ACAC-073839D4025A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6E4BE0-BDC8-4EB2-A0E8-10F75B6E3814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D7F768DF-73CB-4E61-822F-40082C1E529B}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="13260" windowHeight="7755" xr2:uid="{D7F768DF-73CB-4E61-822F-40082C1E529B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -37,7 +30,7 @@
     <t>Patient_ID</t>
   </si>
   <si>
-    <t>A200000403</t>
+    <t>A200000406</t>
   </si>
 </sst>
 </file>
